--- a/dating_workflow/calibrations/Table S2.xlsx
+++ b/dating_workflow/calibrations/Table S2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\github_repo\evol_tk\dating_workflow\calibrations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFB3602-1BCC-4EB0-865E-4827CBDF3FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6029CF0E-190F-41A6-AA02-2BC9FFD28DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset S2.1" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="120">
   <si>
     <t>&gt;16.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,14 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;5.50&lt;8.33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;4.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B(1.25, 2.5, 1e-300, 0.025)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,31 +139,7 @@
     <t>B8</t>
   </si>
   <si>
-    <t>&gt;4.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;10.56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;4.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;3.08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Crown diatoms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;1.34&lt;5.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;0.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -365,14 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B(4.21, 18.91, 1e-300, 0.025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B(3.08, 18.91, 1e-300, 0.025)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B(1.34, 18.91, 1e-300, 0.025)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,34 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PN1 Total Charophyta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN2 Total Chlorophyta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN3 Total Trachaeophytes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN4 Total Angiosperms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN5 Total diatoms (Pelagophyceae)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PN6 Crown diatoms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XN1 Total Eudicots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>XN3 Total Florideophyceae</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,33 +382,6 @@
   </si>
   <si>
     <t>P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&gt;5.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;6.36</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -507,67 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">XN2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Total</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Embryophyta</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&gt;5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&gt;10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>45</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B(5.25, 6.36, 1e-300, 0.025)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -613,6 +457,90 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XN1 Total Eudicots (Crown Angiosperm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;5.5&lt;6.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;5.5&lt;8.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;4.00&lt;18.91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;5.5&lt;18.91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;10.33&lt;18.91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;10.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;4.8&lt;18.91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;1.4&lt;18.91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;0.8&lt;18.91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN3 Total Angiosperms (Crown Spermatophyta)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;3.08&lt;5.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B(3.08, 5.09, 1e-300, 0.025)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;3.08&lt;3.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN1 Total Charophyta/Total Chlorophyta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN2 Crown Chlorophyta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN4 Total diatoms (Pelagophyceae)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN5 Crown diatoms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XN2 Crown Embryophyta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,10 +618,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,82 +903,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E20BFEF-E413-43AB-9684-D970ACF71119}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="9.33203125" customWidth="1"/>
+    <col min="2" max="11" width="9.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="17" width="9.33203125" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="21" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1114,7 +1044,7 @@
     </row>
     <row r="5" spans="1:21" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -1131,7 +1061,7 @@
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -1151,7 +1081,7 @@
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -1168,7 +1098,7 @@
     </row>
     <row r="8" spans="1:21" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -1188,7 +1118,7 @@
     </row>
     <row r="9" spans="1:21" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -1205,22 +1135,22 @@
     </row>
     <row r="10" spans="1:21" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>15</v>
@@ -1228,48 +1158,48 @@
       <c r="M10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>106</v>
+      <c r="N10" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="L11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>110</v>
+      <c r="N11" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>15</v>
@@ -1277,65 +1207,94 @@
       <c r="M12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="Q12" s="4" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>110</v>
+        <v>16</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>84</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1362,181 +1321,181 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>80</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2">
         <v>420.7</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2">
         <v>480</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2">
         <v>1056</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2">
         <v>308.14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2">
         <v>550</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2">
         <v>1033</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,10 +1503,10 @@
         <v>-1891</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
